--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2927710.175690293</v>
+        <v>2925138.221172386</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>108.8074282022286</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -862,7 +862,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>266.6210949690525</v>
       </c>
       <c r="X4" t="n">
-        <v>127.004412707233</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>367.1215549865465</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.6628440710897</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>37.83808333974897</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>20.26682930112263</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>361.9137890538184</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>48.26252137233833</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>43.60620160013919</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>26.32882004050031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695616</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.63824106824919</v>
       </c>
       <c r="S16" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695562</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>141.8888082957382</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>126.3436347319666</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>19.17715139986178</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881299</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,13 +3661,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>19.88691958258267</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>41.01175877060098</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>184.1670747424466</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4147,13 +4147,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>172.0260335000799</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795604</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1591.868758816787</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1222.906241876376</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2587.242597884658</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2368.607930856721</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2368.607930856721</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2368.607930856721</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2368.607930856721</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2368.607930856721</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1978.468598880909</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,31 +4407,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4492,40 +4492,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T4" t="n">
-        <v>471.4038777286581</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="U4" t="n">
-        <v>182.2302673832261</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="V4" t="n">
-        <v>182.2302673832261</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="W4" t="n">
-        <v>182.2302673832261</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
         <v>53.94298182036445</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1249.712458167646</v>
+        <v>1176.876864157142</v>
       </c>
       <c r="C5" t="n">
-        <v>880.7499412272343</v>
+        <v>1176.876864157142</v>
       </c>
       <c r="D5" t="n">
-        <v>880.7499412272343</v>
+        <v>1176.876864157142</v>
       </c>
       <c r="E5" t="n">
-        <v>880.7499412272343</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>469.7640364376268</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143458</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y5" t="n">
-        <v>1249.712458167646</v>
+        <v>1563.476704221264</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785276</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D7" t="n">
-        <v>409.0761618661918</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>261.1630682837987</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>261.1630682837987</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>92.16326802213109</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>678.2405203114477</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>678.2405203114477</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1187.828354776384</v>
+        <v>1111.918385033061</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>1111.918385033061</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>753.652686426311</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>753.652686426311</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>746.7071856771075</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2648.399069430002</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2648.399069430002</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2648.399069430002</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>2648.399069430002</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2317.336182086431</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W8" t="n">
-        <v>1964.567526816317</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X8" t="n">
-        <v>1964.567526816317</v>
+        <v>1498.518225097183</v>
       </c>
       <c r="Y8" t="n">
-        <v>1574.428194840505</v>
+        <v>1498.518225097183</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4890,10 +4890,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>519.8857516585174</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>535.9356573576496</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>701.5342164887571</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5021,37 +5021,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5118,25 +5118,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400712</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E13" t="n">
-        <v>513.8536007400712</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5255,70 +5255,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168624</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075831</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708873</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2425.106274420413</v>
       </c>
       <c r="S16" t="n">
-        <v>2336.956424518383</v>
+        <v>2242.251440075317</v>
       </c>
       <c r="T16" t="n">
-        <v>2117.354959541324</v>
+        <v>2022.649975098258</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1733.574748442456</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1478.890260236569</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1189.473090199608</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.395944601127</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>119.290296770379</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2515.675093211831</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,10 +5975,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M24" t="n">
-        <v>738.7889117913853</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>1366.386875345992</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1918.296605585279</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2341.919755080347</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,16 +6236,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1290.379337067265</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1062.389786169248</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>841.597207025718</v>
       </c>
     </row>
     <row r="29">
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6546,22 +6546,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>612.4311299055728</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,10 +6710,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969303</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1958.090220510648</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1703.405732304761</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6917,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,25 +6947,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>923.0670414349513</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1957.373282952344</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="41">
@@ -7397,46 +7397,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>716.6687843969303</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969303</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>555.8158034133954</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>555.8158034133954</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>302.4387812932949</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>135.2426820081749</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>958.2568473871653</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>737.4642682436352</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111709</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756267</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468474</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589159</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263526</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2273.199413378161</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8468,7 +8468,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714827</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8538,13 +8538,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>2.330580173293129e-12</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9407,13 +9407,13 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9644,16 +9644,16 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
         <v>4.547473508864641e-13</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10358,13 +10358,13 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>-7.851904691651628e-13</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10601,13 +10601,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>1.27897692436818e-12</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>116.6691671648112</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>6.922421112517611</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>44.73700564187249</v>
       </c>
       <c r="S16" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>119.3662399606954</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>144.6341900408528</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>20.09032791460257</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>267.0073229893824</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25549,13 +25549,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>266.2975548066615</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,13 +25783,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>99.28295407562291</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>41.54258064659052</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26068,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>9.00025250156466</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>24.63391537253443</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>750880.212468342</v>
+        <v>750880.2124683419</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>750880.2124683422</v>
+        <v>750880.2124683419</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>750880.212468342</v>
+        <v>750880.2124683422</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>750880.2124683419</v>
+        <v>750880.212468342</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>750880.2124683419</v>
+        <v>750880.212468342</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>750880.2124683419</v>
+        <v>750880.212468342</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>750880.2124683422</v>
+        <v>750880.2124683419</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.4601380333</v>
+      </c>
+      <c r="C2" t="n">
         <v>677359.4601380334</v>
       </c>
-      <c r="C2" t="n">
-        <v>677359.4601380335</v>
-      </c>
       <c r="D2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380333</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.944744255</v>
       </c>
       <c r="F2" t="n">
         <v>665895.9447442548</v>
@@ -26329,31 +26329,31 @@
         <v>665895.9447442549</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442554</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.944744255</v>
       </c>
       <c r="J2" t="n">
-        <v>665895.9447442554</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="K2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.944744255</v>
       </c>
       <c r="L2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="M2" t="n">
         <v>665895.944744255</v>
       </c>
-      <c r="M2" t="n">
-        <v>665895.9447442554</v>
-      </c>
       <c r="N2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.944744255</v>
       </c>
       <c r="O2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442552</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26375,7 +26375,7 @@
         <v>944372.7777577088</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925932</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080586</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.026689228136092e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670442</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.592601670471</v>
+        <v>5067.592601670398</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670445</v>
       </c>
       <c r="H4" t="n">
-        <v>5067.592601670443</v>
+        <v>5067.59260167044</v>
       </c>
       <c r="I4" t="n">
         <v>5067.592601670443</v>
       </c>
       <c r="J4" t="n">
-        <v>5067.592601670429</v>
+        <v>5067.592601670442</v>
       </c>
       <c r="K4" t="n">
-        <v>5067.592601670416</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="L4" t="n">
-        <v>5067.592601670421</v>
+        <v>5067.592601670442</v>
       </c>
       <c r="M4" t="n">
-        <v>5067.592601670455</v>
+        <v>5067.592601670467</v>
       </c>
       <c r="N4" t="n">
-        <v>5067.592601670417</v>
+        <v>5067.592601670466</v>
       </c>
       <c r="O4" t="n">
-        <v>5067.592601670381</v>
+        <v>5067.592601670439</v>
       </c>
       <c r="P4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670443</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-196532.0030676521</v>
       </c>
       <c r="C6" t="n">
-        <v>393435.8761468926</v>
+        <v>393435.8761468924</v>
       </c>
       <c r="D6" t="n">
-        <v>393435.8761468924</v>
+        <v>393435.8761468923</v>
       </c>
       <c r="E6" t="n">
-        <v>-384666.9554390314</v>
+        <v>-384701.693364467</v>
       </c>
       <c r="F6" t="n">
-        <v>559705.8223186771</v>
+        <v>559671.0843932417</v>
       </c>
       <c r="G6" t="n">
-        <v>559705.8223186776</v>
+        <v>559671.0843932418</v>
       </c>
       <c r="H6" t="n">
-        <v>559705.8223186773</v>
+        <v>559671.0843932423</v>
       </c>
       <c r="I6" t="n">
-        <v>559705.8223186778</v>
+        <v>559671.0843932419</v>
       </c>
       <c r="J6" t="n">
-        <v>383282.6031260847</v>
+        <v>383247.8652006487</v>
       </c>
       <c r="K6" t="n">
-        <v>559705.8223186778</v>
+        <v>559671.0843932419</v>
       </c>
       <c r="L6" t="n">
-        <v>559705.8223186776</v>
+        <v>559671.084393242</v>
       </c>
       <c r="M6" t="n">
-        <v>435497.3116106192</v>
+        <v>435462.5736851833</v>
       </c>
       <c r="N6" t="n">
-        <v>559705.8223186778</v>
+        <v>559671.0843932419</v>
       </c>
       <c r="O6" t="n">
-        <v>559705.8223186776</v>
+        <v>559671.0843932419</v>
       </c>
       <c r="P6" t="n">
-        <v>559705.8223186771</v>
+        <v>559671.084393242</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,16 +26790,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26820,16 +26820,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.167741930834099e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450932</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.167741930834099e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>36.03392876660428</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>65.6082846067429</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,16 +27591,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>19.90190336753847</v>
       </c>
       <c r="X4" t="n">
-        <v>98.70524268180415</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>14.80881508571531</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.121325949705295</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>118.3328055020462</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>126.3983626790352</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>51.8703809669766</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>6.215881202473383</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>168.5393373498797</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>192.2558333115945</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-8.668621376273222e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30511,7 +30511,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-8.988773068867788e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31838,10 +31838,10 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31850,16 +31850,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32075,22 +32075,22 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>671.2522281007818</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>152.5685698206132</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>300.5543663814922</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32330,13 +32330,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,19 +32783,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>732.4825987614915</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32807,10 +32807,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>353.2560498238277</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>270.948695672725</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>556.7959610899857</v>
+        <v>750.6021172789107</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>616.5397119226052</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420756</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862125</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565753</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181306</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
         <v>297.223041434342</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,7 +35021,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,16 +35258,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35419,7 +35419,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O11" t="n">
         <v>696.488651224316</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35498,16 +35498,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367793</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394652</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>528.6559836563374</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>25.73094315394657</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>161.999986601618</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,13 +35978,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,13 +36127,13 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36373,7 +36373,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36431,19 +36431,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>590.3485648394733</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36455,10 +36455,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>213.2742757378062</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>128.8146617507067</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>425.4542490066523</v>
+        <v>619.2604051955774</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>477.985332142731</v>
+        <v>285.360777932</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641942</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121309</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
         <v>120.4022572998984</v>
